--- a/public/excels/设备信息模板.xlsx
+++ b/public/excels/设备信息模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6D2696-F93B-4B8F-9B0A-BB1BBECB43A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AFA571D-2298-4E2C-A109-05255F1B9CF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="13275" xr2:uid="{2460CD33-64AB-4895-9869-2E6491BACF90}"/>
   </bookViews>
@@ -25,187 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
-  <si>
-    <t>e_type</t>
-  </si>
-  <si>
-    <t>e_device_no</t>
-  </si>
-  <si>
-    <t>e_name</t>
-  </si>
-  <si>
-    <t>e_dept_id</t>
-  </si>
-  <si>
-    <t>crafts_id</t>
-  </si>
-  <si>
-    <t>daily_energy</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>e_brand</t>
-  </si>
-  <si>
-    <t>e_machine_type</t>
-  </si>
-  <si>
-    <t>edition</t>
-  </si>
-  <si>
-    <t>e_network_address</t>
-  </si>
-  <si>
-    <t>ftp_name</t>
-  </si>
-  <si>
-    <t>ftp_pwd</t>
-  </si>
-  <si>
-    <t>is_automation</t>
-  </si>
-  <si>
-    <t>is_inuse</t>
-  </si>
-  <si>
-    <t>e_zhixi</t>
-  </si>
-  <si>
-    <t>e_acceptance_date</t>
-  </si>
-  <si>
-    <t>e_section</t>
-  </si>
-  <si>
-    <t>e_device_code</t>
-  </si>
-  <si>
-    <t>e_factory</t>
-  </si>
-  <si>
-    <t>e_district</t>
-  </si>
-  <si>
-    <t>e_maintain_person_id</t>
-  </si>
-  <si>
-    <t>e_responsible_person_id</t>
-  </si>
-  <si>
-    <t>e_responsible_dept</t>
-  </si>
-  <si>
-    <t>e_process_dept</t>
-  </si>
-  <si>
-    <t>e_product_dept</t>
-  </si>
-  <si>
-    <t>e_product_code</t>
-  </si>
-  <si>
-    <t>e_product_date</t>
-  </si>
-  <si>
-    <t>e_enter_date</t>
-  </si>
-  <si>
-    <t>e_check_date</t>
-  </si>
-  <si>
-    <t>e_power</t>
-  </si>
-  <si>
-    <t>e_repair_dept</t>
-  </si>
-  <si>
-    <t>e_repair_manager_id</t>
-  </si>
-  <si>
-    <t>e_storage_area</t>
-  </si>
-  <si>
-    <t>e_storage_position</t>
-  </si>
-  <si>
-    <t>e_asset_number</t>
-  </si>
-  <si>
-    <t>e_company</t>
-  </si>
-  <si>
-    <t>e_isonline</t>
-  </si>
-  <si>
-    <t>e_isdigit</t>
-  </si>
-  <si>
-    <t>e_precision</t>
-  </si>
-  <si>
-    <t>e_size</t>
-  </si>
-  <si>
-    <t>e_x_stroke</t>
-  </si>
-  <si>
-    <t>e_y_stroke</t>
-  </si>
-  <si>
-    <t>e_z_stroke</t>
-  </si>
-  <si>
-    <t>e_u_stroke</t>
-  </si>
-  <si>
-    <t>e_v_stroke</t>
-  </si>
-  <si>
-    <t>e_rotate_speed</t>
-  </si>
-  <si>
-    <t>e_push_speed</t>
-  </si>
-  <si>
-    <t>e_weight</t>
-  </si>
-  <si>
-    <t>e_voltage</t>
-  </si>
-  <si>
-    <t>e_air_pressure</t>
-  </si>
-  <si>
-    <t>e_knife_capacity</t>
-  </si>
-  <si>
-    <t>e_controller</t>
-  </si>
-  <si>
-    <t>e_version</t>
-  </si>
-  <si>
-    <t>e_ice_machine_brand</t>
-  </si>
-  <si>
-    <t>e_ice_machine_model</t>
-  </si>
-  <si>
-    <t>e_ice_machine_number</t>
-  </si>
-  <si>
-    <t>e_ice_machine_power</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>0</t>
   </si>
@@ -295,6 +115,204 @@
   </si>
   <si>
     <t>1509865326496895000</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用工艺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日产能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态 0 启用 1 停用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器类型型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动化设备 0 自动化加工 1 人工加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用 0 否 1 是</t>
+  </si>
+  <si>
+    <t>职系</t>
+  </si>
+  <si>
+    <t>验收日期</t>
+  </si>
+  <si>
+    <t>所属工段</t>
+  </si>
+  <si>
+    <t>设备编码</t>
+  </si>
+  <si>
+    <t>厂区</t>
+  </si>
+  <si>
+    <t>园区</t>
+  </si>
+  <si>
+    <t>保养人员</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>责任部门</t>
+  </si>
+  <si>
+    <t>加工部</t>
+  </si>
+  <si>
+    <t>制造处</t>
+  </si>
+  <si>
+    <t>制造编号</t>
+  </si>
+  <si>
+    <t>制造日期</t>
+  </si>
+  <si>
+    <t>入厂日期</t>
+  </si>
+  <si>
+    <t>设备功率</t>
+  </si>
+  <si>
+    <t>维修课</t>
+  </si>
+  <si>
+    <t>维修主管</t>
+  </si>
+  <si>
+    <t>存放区域</t>
+  </si>
+  <si>
+    <t>存放地点</t>
+  </si>
+  <si>
+    <t>资产编号</t>
+  </si>
+  <si>
+    <t>公司(法人)</t>
+  </si>
+  <si>
+    <t>是否联网</t>
+  </si>
+  <si>
+    <t>是否数字化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工精度</t>
+  </si>
+  <si>
+    <t>机台尺寸(长*宽*高)</t>
+  </si>
+  <si>
+    <t>x行程(mm)</t>
+  </si>
+  <si>
+    <t>y行程(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z行程(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u行程(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v行程(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主轴最高转速(rpm)</t>
+  </si>
+  <si>
+    <t>最大进给速度(mm/min)</t>
+  </si>
+  <si>
+    <t>机台重量(T)</t>
+  </si>
+  <si>
+    <t>电压(V)</t>
+  </si>
+  <si>
+    <t>气压(kg/cm2)</t>
+  </si>
+  <si>
+    <t>刀库容量</t>
+  </si>
+  <si>
+    <t>控制器</t>
+  </si>
+  <si>
+    <t>冰机品牌</t>
+  </si>
+  <si>
+    <t>冰机型号</t>
+  </si>
+  <si>
+    <t>冰机序号</t>
+  </si>
+  <si>
+    <t>功率</t>
   </si>
 </sst>
 </file>
@@ -666,21 +684,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A17116-D775-4775-B547-33A1A27716E5}">
   <dimension ref="A1:BH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BI16" sqref="BI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="5" max="5" width="30.875" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="16.125" customWidth="1"/>
     <col min="19" max="19" width="15.125" customWidth="1"/>
     <col min="21" max="21" width="12.875" customWidth="1"/>
+    <col min="26" max="26" width="19.25" customWidth="1"/>
     <col min="30" max="30" width="16.375" customWidth="1"/>
     <col min="31" max="31" width="16.5" customWidth="1"/>
     <col min="32" max="32" width="13.125" customWidth="1"/>
+    <col min="34" max="34" width="15.125" customWidth="1"/>
+    <col min="43" max="43" width="17.375" customWidth="1"/>
+    <col min="44" max="44" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.75" customWidth="1"/>
+    <col min="47" max="47" width="13.5" customWidth="1"/>
+    <col min="49" max="49" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="19.75" customWidth="1"/>
     <col min="58" max="58" width="21.5" customWidth="1"/>
     <col min="59" max="59" width="23.5" customWidth="1"/>
@@ -689,269 +718,269 @@
   <sheetData>
     <row r="1" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="BE1" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="S3" s="2">
         <v>44776</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="AD3" s="2">
         <v>44797</v>
@@ -960,34 +989,34 @@
         <v>44790</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="AR3" s="1">
         <v>322</v>
@@ -1014,60 +1043,60 @@
         <v>32</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="S4" s="2">
         <v>44776</v>
